--- a/BackTest/2019-11-01 BackTest WAX.xlsx
+++ b/BackTest/2019-11-01 BackTest WAX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N105"/>
+  <dimension ref="A1:M105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -780,18 +748,19 @@
         <v>49720.46839999998</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
+        <v>30.6</v>
+      </c>
+      <c r="J11" t="n">
+        <v>30.6</v>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +785,23 @@
         <v>22419.73269999998</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+        <v>30.6</v>
+      </c>
+      <c r="J12" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +828,19 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +865,23 @@
         <v>22626.19109999998</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+        <v>30.5</v>
+      </c>
+      <c r="J14" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +906,23 @@
         <v>20368.12529999998</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+        <v>30.7</v>
+      </c>
+      <c r="J15" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,18 +947,23 @@
         <v>20368.12529999998</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+        <v>30.5</v>
+      </c>
+      <c r="J16" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +990,19 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +1029,19 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1068,19 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1107,19 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1146,19 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1185,19 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1212,18 +1222,23 @@
         <v>18879.90229999998</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+        <v>30.5</v>
+      </c>
+      <c r="J23" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1248,18 +1263,23 @@
         <v>18448.74979999998</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+        <v>30.3</v>
+      </c>
+      <c r="J24" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1284,22 +1304,23 @@
         <v>18448.74979999998</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>30.2</v>
       </c>
       <c r="J25" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="K25" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+        <v>30.6</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1324,26 +1345,23 @@
         <v>18448.74979999998</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>30.2</v>
       </c>
       <c r="J26" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="K26" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+        <v>30.6</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1368,26 +1386,23 @@
         <v>18448.74979999998</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>30.2</v>
       </c>
       <c r="J27" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="K27" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+        <v>30.6</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1412,22 +1427,23 @@
         <v>18448.74979999998</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>30.2</v>
       </c>
       <c r="J28" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="K28" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+        <v>30.6</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1452,26 +1468,23 @@
         <v>18448.74979999998</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>30.2</v>
       </c>
       <c r="J29" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="K29" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+        <v>30.6</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1496,26 +1509,23 @@
         <v>18448.74979999998</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>30.2</v>
       </c>
       <c r="J30" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="K30" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+        <v>30.6</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1540,22 +1550,23 @@
         <v>18448.74979999998</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>30.2</v>
       </c>
       <c r="J31" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="K31" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+        <v>30.6</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1580,26 +1591,23 @@
         <v>19718.28019999998</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>30.2</v>
       </c>
       <c r="J32" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="K32" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+        <v>30.6</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1624,26 +1632,21 @@
         <v>19718.28019999998</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="K33" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+        <v>30.6</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1668,26 +1671,21 @@
         <v>21853.79289999998</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="K34" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+        <v>30.6</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1712,26 +1710,21 @@
         <v>39602.46399999998</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="K35" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="L35" t="inlineStr">
+        <v>30.6</v>
+      </c>
+      <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1758,22 +1751,19 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="L36" t="inlineStr">
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1800,22 +1790,19 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="L37" t="inlineStr">
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1842,22 +1829,19 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="L38" t="inlineStr">
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1884,22 +1868,19 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="L39" t="inlineStr">
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1926,22 +1907,19 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="L40" t="inlineStr">
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1968,22 +1946,19 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="L41" t="inlineStr">
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2010,22 +1985,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="L42" t="inlineStr">
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2050,24 +2022,21 @@
         <v>54984.27929999998</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1.001535947712418</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2092,24 +2061,15 @@
         <v>54984.27929999998</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2136,22 +2096,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2178,22 +2129,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2220,22 +2162,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2262,22 +2195,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2304,22 +2228,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2346,22 +2261,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2388,22 +2294,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2430,22 +2327,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2472,22 +2360,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2512,24 +2391,15 @@
         <v>118161.9313</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2554,24 +2424,15 @@
         <v>368472.7607</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2596,24 +2457,15 @@
         <v>368545.3008</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2638,24 +2490,15 @@
         <v>368545.3008</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2680,24 +2523,15 @@
         <v>368545.3008</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2722,24 +2556,15 @@
         <v>369122.3008</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2764,24 +2589,15 @@
         <v>369122.3008</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2806,24 +2622,15 @@
         <v>369122.3008</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2848,24 +2655,15 @@
         <v>440658.5427</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2890,24 +2688,15 @@
         <v>499155.7715</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2932,24 +2721,15 @@
         <v>499155.7715</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2974,24 +2754,15 @@
         <v>499155.7715</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1.047980132450331</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3016,18 +2787,15 @@
         <v>498096.0628</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3052,18 +2820,15 @@
         <v>498096.0628</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3088,18 +2853,15 @@
         <v>449632.9091999999</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3124,18 +2886,15 @@
         <v>460053.9091999999</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3160,18 +2919,15 @@
         <v>440141.1438999999</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3196,18 +2952,15 @@
         <v>440120.1438999999</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3232,18 +2985,15 @@
         <v>440120.1438999999</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3268,18 +3018,15 @@
         <v>440120.1438999999</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3306,16 +3053,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3340,18 +3084,15 @@
         <v>439116.9258999999</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3378,16 +3119,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3412,18 +3150,15 @@
         <v>394746.9606999999</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3450,16 +3185,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3486,16 +3218,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3522,16 +3251,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3558,16 +3284,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3594,16 +3317,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3630,16 +3350,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3666,16 +3383,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3702,16 +3416,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3738,16 +3449,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3774,16 +3482,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3810,16 +3515,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3846,16 +3548,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3882,16 +3581,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3918,16 +3614,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3954,16 +3647,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3990,16 +3680,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4026,16 +3713,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4062,16 +3746,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4098,16 +3779,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4134,16 +3812,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4170,16 +3845,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4206,16 +3878,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4242,16 +3911,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4276,18 +3942,15 @@
         <v>409647.5644999999</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4312,18 +3975,15 @@
         <v>409647.5644999999</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4350,16 +4010,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4386,16 +4043,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4422,18 +4076,15 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest WAX.xlsx
+++ b/BackTest/2019-11-01 BackTest WAX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -748,14 +748,10 @@
         <v>49720.46839999998</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="J11" t="n">
-        <v>30.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
@@ -785,19 +781,11 @@
         <v>22419.73269999998</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="J12" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -829,14 +817,8 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -865,19 +847,11 @@
         <v>22626.19109999998</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="J14" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -906,19 +880,11 @@
         <v>20368.12529999998</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="J15" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -947,19 +913,11 @@
         <v>20368.12529999998</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="J16" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -991,14 +949,8 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1030,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1069,14 +1015,8 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1108,14 +1048,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1147,14 +1081,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1183,17 +1111,15 @@
         <v>20368.12529999998</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>30.5</v>
+      </c>
       <c r="J22" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>30.5</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1222,17 +1148,17 @@
         <v>18879.90229999998</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>30.5</v>
       </c>
       <c r="J23" t="n">
-        <v>30.6</v>
+        <v>30.5</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L23" t="n">
@@ -1263,17 +1189,17 @@
         <v>18448.74979999998</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>30.3</v>
       </c>
       <c r="J24" t="n">
-        <v>30.6</v>
+        <v>30.5</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L24" t="n">
@@ -1304,19 +1230,15 @@
         <v>18448.74979999998</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>30.2</v>
       </c>
       <c r="J25" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>30.2</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1345,17 +1267,17 @@
         <v>18448.74979999998</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>30.2</v>
       </c>
       <c r="J26" t="n">
-        <v>30.6</v>
+        <v>30.2</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L26" t="n">
@@ -1386,17 +1308,17 @@
         <v>18448.74979999998</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>30.2</v>
       </c>
       <c r="J27" t="n">
-        <v>30.6</v>
+        <v>30.2</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L27" t="n">
@@ -1427,19 +1349,15 @@
         <v>18448.74979999998</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>30.2</v>
       </c>
       <c r="J28" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>30.2</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1468,17 +1386,17 @@
         <v>18448.74979999998</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>30.2</v>
       </c>
       <c r="J29" t="n">
-        <v>30.6</v>
+        <v>30.2</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L29" t="n">
@@ -1509,17 +1427,17 @@
         <v>18448.74979999998</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>30.2</v>
       </c>
       <c r="J30" t="n">
-        <v>30.6</v>
+        <v>30.2</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L30" t="n">
@@ -1550,19 +1468,15 @@
         <v>18448.74979999998</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>30.2</v>
       </c>
       <c r="J31" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>30.2</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1591,17 +1505,17 @@
         <v>19718.28019999998</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>30.2</v>
       </c>
       <c r="J32" t="n">
-        <v>30.6</v>
+        <v>30.2</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L32" t="n">
@@ -1632,15 +1546,17 @@
         <v>19718.28019999998</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>30.4</v>
+      </c>
       <c r="J33" t="n">
-        <v>30.6</v>
+        <v>30.2</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L33" t="n">
@@ -1674,14 +1590,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1710,15 +1620,15 @@
         <v>39602.46399999998</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>30.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L35" t="n">
@@ -1752,9 +1662,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>30.6</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1791,9 +1699,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>30.6</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1830,9 +1736,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>30.6</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1869,9 +1773,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>30.6</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1908,9 +1810,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>30.6</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1947,9 +1847,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>30.6</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1986,9 +1884,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>30.6</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2022,19 +1918,17 @@
         <v>54984.27929999998</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>30.6</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.001535947712418</v>
+        <v>1</v>
       </c>
       <c r="M43" t="inlineStr"/>
     </row>
@@ -2061,11 +1955,15 @@
         <v>54984.27929999998</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2098,7 +1996,11 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2131,7 +2033,11 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2164,7 +2070,11 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2197,7 +2107,11 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2230,7 +2144,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2263,7 +2181,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2296,7 +2218,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2329,7 +2255,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2362,7 +2292,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2391,11 +2325,15 @@
         <v>118161.9313</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2424,11 +2362,15 @@
         <v>368472.7607</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2457,11 +2399,15 @@
         <v>368545.3008</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2490,11 +2436,15 @@
         <v>368545.3008</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2523,11 +2473,15 @@
         <v>368545.3008</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2556,11 +2510,15 @@
         <v>369122.3008</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2589,11 +2547,15 @@
         <v>369122.3008</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2622,11 +2584,15 @@
         <v>369122.3008</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2655,11 +2621,15 @@
         <v>440658.5427</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2688,11 +2658,15 @@
         <v>499155.7715</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2721,11 +2695,15 @@
         <v>499155.7715</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2754,11 +2732,15 @@
         <v>499155.7715</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2787,11 +2769,15 @@
         <v>498096.0628</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2820,11 +2806,15 @@
         <v>498096.0628</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2853,11 +2843,15 @@
         <v>449632.9091999999</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2886,11 +2880,15 @@
         <v>460053.9091999999</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2919,14 +2917,16 @@
         <v>440141.1438999999</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
@@ -2952,7 +2952,7 @@
         <v>440120.1438999999</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2985,7 +2985,7 @@
         <v>440120.1438999999</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3018,7 +3018,7 @@
         <v>440120.1438999999</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3051,7 +3051,7 @@
         <v>439105.9258999999</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3084,7 +3084,7 @@
         <v>439116.9258999999</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3117,7 +3117,7 @@
         <v>423807.8987999999</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3150,7 +3150,7 @@
         <v>394746.9606999999</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3183,7 +3183,7 @@
         <v>394757.9606999999</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3216,7 +3216,7 @@
         <v>394757.9606999999</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3249,7 +3249,7 @@
         <v>394757.9606999999</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3282,7 +3282,7 @@
         <v>372537.0487999999</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3348,7 +3348,7 @@
         <v>372703.0487999999</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3381,7 +3381,7 @@
         <v>372603.0487999999</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3414,7 +3414,7 @@
         <v>372603.0487999999</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3447,7 +3447,7 @@
         <v>376408.0487999999</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3480,7 +3480,7 @@
         <v>376407.6305999999</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3513,7 +3513,7 @@
         <v>376407.6305999999</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3546,7 +3546,7 @@
         <v>371407.6305999999</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3579,7 +3579,7 @@
         <v>423400.8769999999</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3612,7 +3612,7 @@
         <v>422180.8769999999</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3645,7 +3645,7 @@
         <v>422180.8769999999</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3678,7 +3678,7 @@
         <v>422191.8769999999</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3744,7 +3744,7 @@
         <v>420890.8769999999</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3876,7 +3876,7 @@
         <v>409636.5644999999</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3942,7 +3942,7 @@
         <v>409647.5644999999</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3975,7 +3975,7 @@
         <v>409647.5644999999</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4008,7 +4008,7 @@
         <v>398447.7115999999</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4041,7 +4041,7 @@
         <v>398458.7115999999</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4074,7 +4074,7 @@
         <v>398458.7115999999</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4085,6 +4085,6 @@
       <c r="M105" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest WAX.xlsx
+++ b/BackTest/2019-11-01 BackTest WAX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>65953.43899999998</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>65953.43899999998</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>65953.43899999998</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>65953.43899999998</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -1111,14 +1111,10 @@
         <v>20368.12529999998</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="J22" t="n">
-        <v>30.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
@@ -1148,19 +1144,11 @@
         <v>18879.90229999998</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="J23" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1189,19 +1177,11 @@
         <v>18448.74979999998</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="J24" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1427,11 +1407,9 @@
         <v>18448.74979999998</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>30.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
         <v>30.2</v>
       </c>
@@ -1546,11 +1524,9 @@
         <v>19718.28019999998</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>30.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
         <v>30.2</v>
       </c>
@@ -1620,17 +1596,11 @@
         <v>39602.46399999998</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>30.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1663,11 +1633,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1696,15 +1662,11 @@
         <v>39602.46399999998</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1733,15 +1695,11 @@
         <v>39602.46399999998</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1770,15 +1728,11 @@
         <v>77629.98799999998</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1807,15 +1761,11 @@
         <v>77629.98799999998</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1844,15 +1794,11 @@
         <v>77629.98799999998</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1881,15 +1827,11 @@
         <v>54984.27929999998</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1918,15 +1860,11 @@
         <v>54984.27929999998</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1955,15 +1893,11 @@
         <v>54984.27929999998</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1992,15 +1926,11 @@
         <v>52845.08779999998</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2029,15 +1959,11 @@
         <v>52845.08779999998</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2070,11 +1996,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2107,11 +2029,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2144,11 +2062,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2181,11 +2095,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2218,11 +2128,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2255,11 +2161,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2292,11 +2194,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2329,11 +2227,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2366,11 +2260,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2403,11 +2293,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2440,11 +2326,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2477,11 +2359,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2514,11 +2392,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2551,11 +2425,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2588,11 +2458,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2625,11 +2491,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2662,11 +2524,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2699,11 +2557,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2736,11 +2590,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2773,11 +2623,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2810,11 +2656,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2847,11 +2689,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2884,11 +2722,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2917,16 +2751,14 @@
         <v>440141.1438999999</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
       <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
@@ -2952,7 +2784,7 @@
         <v>440120.1438999999</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2985,7 +2817,7 @@
         <v>440120.1438999999</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3018,7 +2850,7 @@
         <v>440120.1438999999</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3051,7 +2883,7 @@
         <v>439105.9258999999</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3249,7 +3081,7 @@
         <v>394757.9606999999</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3282,7 +3114,7 @@
         <v>372537.0487999999</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3348,7 +3180,7 @@
         <v>372703.0487999999</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3381,7 +3213,7 @@
         <v>372603.0487999999</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3579,7 +3411,7 @@
         <v>423400.8769999999</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3645,7 +3477,7 @@
         <v>422180.8769999999</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3711,7 +3543,7 @@
         <v>422191.8769999999</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3876,7 +3708,7 @@
         <v>409636.5644999999</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3942,7 +3774,7 @@
         <v>409647.5644999999</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3975,7 +3807,7 @@
         <v>409647.5644999999</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4008,7 +3840,7 @@
         <v>398447.7115999999</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4041,7 +3873,7 @@
         <v>398458.7115999999</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4074,7 +3906,7 @@
         <v>398458.7115999999</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4085,6 +3917,6 @@
       <c r="M105" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest WAX.xlsx
+++ b/BackTest/2019-11-01 BackTest WAX.xlsx
@@ -451,7 +451,7 @@
         <v>65953.43899999998</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>65953.43899999998</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>65953.43899999998</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>65953.43899999998</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -946,10 +946,14 @@
         <v>20368.12529999998</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="J17" t="n">
+        <v>30.5</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
@@ -982,8 +986,14 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1022,19 @@
         <v>20368.12529999998</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="J19" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,10 +1063,14 @@
         <v>20368.12529999998</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="J20" t="n">
+        <v>30.5</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
@@ -1078,11 +1100,19 @@
         <v>20368.12529999998</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="J21" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1141,19 @@
         <v>20368.12529999998</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="J22" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,10 +1182,14 @@
         <v>18879.90229999998</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="J23" t="n">
+        <v>30.5</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
@@ -1177,11 +1219,19 @@
         <v>18448.74979999998</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="J24" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1216,9 +1266,13 @@
         <v>30.2</v>
       </c>
       <c r="J25" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
+        <v>30.5</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1255,11 +1309,7 @@
       <c r="J26" t="n">
         <v>30.2</v>
       </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1337,7 +1387,11 @@
       <c r="J28" t="n">
         <v>30.2</v>
       </c>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1374,11 +1428,7 @@
       <c r="J29" t="n">
         <v>30.2</v>
       </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1407,9 +1457,11 @@
         <v>18448.74979999998</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>30.2</v>
+      </c>
       <c r="J30" t="n">
         <v>30.2</v>
       </c>
@@ -1454,7 +1506,11 @@
       <c r="J31" t="n">
         <v>30.2</v>
       </c>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1491,11 +1547,7 @@
       <c r="J32" t="n">
         <v>30.2</v>
       </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1524,9 +1576,11 @@
         <v>19718.28019999998</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>30.4</v>
+      </c>
       <c r="J33" t="n">
         <v>30.2</v>
       </c>
@@ -1566,8 +1620,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1596,11 +1656,19 @@
         <v>39602.46399999998</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="J35" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1632,8 +1700,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1662,11 +1736,17 @@
         <v>39602.46399999998</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1695,11 +1775,17 @@
         <v>39602.46399999998</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1728,11 +1814,17 @@
         <v>77629.98799999998</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1761,11 +1853,17 @@
         <v>77629.98799999998</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1794,11 +1892,17 @@
         <v>77629.98799999998</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1827,11 +1931,17 @@
         <v>54984.27929999998</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1860,11 +1970,17 @@
         <v>54984.27929999998</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1893,11 +2009,17 @@
         <v>54984.27929999998</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1926,11 +2048,17 @@
         <v>52845.08779999998</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1959,11 +2087,17 @@
         <v>52845.08779999998</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1995,8 +2129,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2028,8 +2168,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2061,8 +2207,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2094,8 +2246,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2127,8 +2285,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2160,8 +2324,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2193,8 +2363,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2226,8 +2402,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2259,8 +2441,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2292,8 +2480,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2325,8 +2519,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2358,8 +2558,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2391,8 +2597,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2424,8 +2636,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2457,8 +2675,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2490,8 +2714,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2523,8 +2753,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2553,13 +2789,19 @@
         <v>499155.7715</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L64" t="n">
-        <v>1</v>
+        <v>1.047980132450331</v>
       </c>
       <c r="M64" t="inlineStr"/>
     </row>
@@ -2586,7 +2828,7 @@
         <v>499155.7715</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2619,7 +2861,7 @@
         <v>498096.0628</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2652,7 +2894,7 @@
         <v>498096.0628</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2685,7 +2927,7 @@
         <v>449632.9091999999</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2718,7 +2960,7 @@
         <v>460053.9091999999</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2751,7 +2993,7 @@
         <v>440141.1438999999</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2784,7 +3026,7 @@
         <v>440120.1438999999</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2916,7 +3158,7 @@
         <v>439116.9258999999</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2949,7 +3191,7 @@
         <v>423807.8987999999</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2982,7 +3224,7 @@
         <v>394746.9606999999</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3015,7 +3257,7 @@
         <v>394757.9606999999</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3048,7 +3290,7 @@
         <v>394757.9606999999</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3246,7 +3488,7 @@
         <v>372603.0487999999</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3279,7 +3521,7 @@
         <v>376408.0487999999</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3312,7 +3554,7 @@
         <v>376407.6305999999</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3345,7 +3587,7 @@
         <v>376407.6305999999</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3378,7 +3620,7 @@
         <v>371407.6305999999</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3444,7 +3686,7 @@
         <v>422180.8769999999</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3510,7 +3752,7 @@
         <v>422191.8769999999</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3543,7 +3785,7 @@
         <v>422191.8769999999</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3576,7 +3818,7 @@
         <v>420890.8769999999</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>

--- a/BackTest/2019-11-01 BackTest WAX.xlsx
+++ b/BackTest/2019-11-01 BackTest WAX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M105"/>
+  <dimension ref="A1:L105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>33569.2759</v>
       </c>
       <c r="G2" t="n">
-        <v>65953.43899999998</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>21266.1531</v>
       </c>
       <c r="G3" t="n">
-        <v>65953.43899999998</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>8143.5541</v>
       </c>
       <c r="G4" t="n">
-        <v>65953.43899999998</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>5157.3873</v>
       </c>
       <c r="G5" t="n">
-        <v>65953.43899999998</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>9489.2438</v>
       </c>
       <c r="G6" t="n">
-        <v>65953.43899999998</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>13253.1418</v>
       </c>
       <c r="G7" t="n">
-        <v>52700.29719999999</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>1030</v>
       </c>
       <c r="G8" t="n">
-        <v>51670.29719999999</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>1949.8288</v>
       </c>
       <c r="G9" t="n">
-        <v>49720.46839999998</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>12945.4335</v>
       </c>
       <c r="G10" t="n">
-        <v>49720.46839999998</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>768.5507</v>
       </c>
       <c r="G11" t="n">
-        <v>49720.46839999998</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>27300.7357</v>
       </c>
       <c r="G12" t="n">
-        <v>22419.73269999998</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>31120.8122</v>
       </c>
       <c r="G13" t="n">
-        <v>22419.73269999998</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>206.4584</v>
       </c>
       <c r="G14" t="n">
-        <v>22626.19109999998</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>2258.0658</v>
       </c>
       <c r="G15" t="n">
-        <v>20368.12529999998</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>2958.585</v>
       </c>
       <c r="G16" t="n">
-        <v>20368.12529999998</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,22 +893,15 @@
         <v>35787.6529</v>
       </c>
       <c r="G17" t="n">
-        <v>20368.12529999998</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="J17" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -980,24 +923,15 @@
         <v>677.6595</v>
       </c>
       <c r="G18" t="n">
-        <v>20368.12529999998</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1019,26 +953,15 @@
         <v>18582.8685</v>
       </c>
       <c r="G19" t="n">
-        <v>20368.12529999998</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="J19" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1060,22 +983,15 @@
         <v>12227.7762</v>
       </c>
       <c r="G20" t="n">
-        <v>20368.12529999998</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="J20" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1097,26 +1013,15 @@
         <v>6322.0021</v>
       </c>
       <c r="G21" t="n">
-        <v>20368.12529999998</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="J21" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1138,26 +1043,15 @@
         <v>151.5604</v>
       </c>
       <c r="G22" t="n">
-        <v>20368.12529999998</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="J22" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1179,22 +1073,15 @@
         <v>1488.223</v>
       </c>
       <c r="G23" t="n">
-        <v>18879.90229999998</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="J23" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1216,26 +1103,15 @@
         <v>431.1525</v>
       </c>
       <c r="G24" t="n">
-        <v>18448.74979999998</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="J24" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1257,26 +1133,19 @@
         <v>736.4034</v>
       </c>
       <c r="G25" t="n">
-        <v>18448.74979999998</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>30.2</v>
       </c>
       <c r="I25" t="n">
         <v>30.2</v>
       </c>
-      <c r="J25" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1298,22 +1167,23 @@
         <v>19664.4441</v>
       </c>
       <c r="G26" t="n">
-        <v>18448.74979999998</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>30.2</v>
       </c>
       <c r="I26" t="n">
         <v>30.2</v>
       </c>
-      <c r="J26" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1335,26 +1205,23 @@
         <v>20.4635</v>
       </c>
       <c r="G27" t="n">
-        <v>18448.74979999998</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>30.2</v>
       </c>
       <c r="I27" t="n">
         <v>30.2</v>
       </c>
-      <c r="J27" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="K27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1376,26 +1243,19 @@
         <v>6291.2251</v>
       </c>
       <c r="G28" t="n">
-        <v>18448.74979999998</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>30.2</v>
       </c>
       <c r="I28" t="n">
         <v>30.2</v>
       </c>
-      <c r="J28" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1417,22 +1277,23 @@
         <v>8575.571099999999</v>
       </c>
       <c r="G29" t="n">
-        <v>18448.74979999998</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>30.2</v>
       </c>
       <c r="I29" t="n">
         <v>30.2</v>
       </c>
-      <c r="J29" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1454,26 +1315,23 @@
         <v>6431.6804</v>
       </c>
       <c r="G30" t="n">
-        <v>18448.74979999998</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>30.2</v>
       </c>
       <c r="I30" t="n">
         <v>30.2</v>
       </c>
-      <c r="J30" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="K30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1495,26 +1353,19 @@
         <v>9928.8305</v>
       </c>
       <c r="G31" t="n">
-        <v>18448.74979999998</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>30.2</v>
       </c>
       <c r="I31" t="n">
         <v>30.2</v>
       </c>
-      <c r="J31" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1536,22 +1387,23 @@
         <v>1269.5304</v>
       </c>
       <c r="G32" t="n">
-        <v>19718.28019999998</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>30.2</v>
       </c>
       <c r="I32" t="n">
         <v>30.2</v>
       </c>
-      <c r="J32" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1573,26 +1425,21 @@
         <v>304.6872</v>
       </c>
       <c r="G33" t="n">
-        <v>19718.28019999998</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="J33" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="K33" t="inlineStr">
+        <v>30.2</v>
+      </c>
+      <c r="J33" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1614,24 +1461,23 @@
         <v>2135.5127</v>
       </c>
       <c r="G34" t="n">
-        <v>21853.79289999998</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>30.4</v>
+      </c>
+      <c r="I34" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1653,26 +1499,23 @@
         <v>17748.6711</v>
       </c>
       <c r="G35" t="n">
-        <v>39602.46399999998</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>30.5</v>
       </c>
       <c r="I35" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="J35" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>30.2</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1694,24 +1537,23 @@
         <v>3349.08</v>
       </c>
       <c r="G36" t="n">
-        <v>39602.46399999998</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="K36" t="inlineStr">
+        <v>30.7</v>
+      </c>
+      <c r="I36" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="J36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1733,24 +1575,21 @@
         <v>2126.3083</v>
       </c>
       <c r="G37" t="n">
-        <v>39602.46399999998</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="K37" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="J37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1772,24 +1611,21 @@
         <v>8586.828600000001</v>
       </c>
       <c r="G38" t="n">
-        <v>39602.46399999998</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="K38" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="J38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1811,24 +1647,21 @@
         <v>38027.524</v>
       </c>
       <c r="G39" t="n">
-        <v>77629.98799999998</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="K39" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="J39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1850,24 +1683,21 @@
         <v>14024.6834</v>
       </c>
       <c r="G40" t="n">
-        <v>77629.98799999998</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="K40" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="J40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1889,24 +1719,21 @@
         <v>12537.3161</v>
       </c>
       <c r="G41" t="n">
-        <v>77629.98799999998</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="K41" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="J41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1928,24 +1755,21 @@
         <v>22645.7087</v>
       </c>
       <c r="G42" t="n">
-        <v>54984.27929999998</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="K42" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="J42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1967,24 +1791,21 @@
         <v>3768.4586</v>
       </c>
       <c r="G43" t="n">
-        <v>54984.27929999998</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="K43" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="J43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2006,24 +1827,21 @@
         <v>744.6025</v>
       </c>
       <c r="G44" t="n">
-        <v>54984.27929999998</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="K44" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="J44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2045,24 +1863,21 @@
         <v>2139.1915</v>
       </c>
       <c r="G45" t="n">
-        <v>52845.08779999998</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="K45" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="J45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2084,24 +1899,21 @@
         <v>380.5733</v>
       </c>
       <c r="G46" t="n">
-        <v>52845.08779999998</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="K46" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="J46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2123,24 +1935,21 @@
         <v>289.4795</v>
       </c>
       <c r="G47" t="n">
-        <v>53134.56729999998</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="K47" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="J47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2162,24 +1971,21 @@
         <v>220.0044</v>
       </c>
       <c r="G48" t="n">
-        <v>53354.57169999998</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="K48" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="J48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2201,24 +2007,21 @@
         <v>24217.102</v>
       </c>
       <c r="G49" t="n">
-        <v>53354.57169999998</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="K49" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="J49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2240,24 +2043,21 @@
         <v>2644.7685</v>
       </c>
       <c r="G50" t="n">
-        <v>53354.57169999998</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="K50" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="J50" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2279,24 +2079,21 @@
         <v>1039.7759</v>
       </c>
       <c r="G51" t="n">
-        <v>53354.57169999998</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="K51" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="J51" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2318,24 +2115,21 @@
         <v>68909.32030000001</v>
       </c>
       <c r="G52" t="n">
-        <v>122263.892</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="K52" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="J52" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2357,24 +2151,21 @@
         <v>21089.9428</v>
       </c>
       <c r="G53" t="n">
-        <v>122263.892</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="K53" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="J53" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2396,24 +2187,21 @@
         <v>4101.9607</v>
       </c>
       <c r="G54" t="n">
-        <v>118161.9313</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="K54" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="J54" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2435,24 +2223,21 @@
         <v>250310.8294</v>
       </c>
       <c r="G55" t="n">
-        <v>368472.7607</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="K55" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="J55" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2474,24 +2259,21 @@
         <v>72.5401</v>
       </c>
       <c r="G56" t="n">
-        <v>368545.3008</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="K56" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="J56" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2513,24 +2295,21 @@
         <v>20011.672</v>
       </c>
       <c r="G57" t="n">
-        <v>368545.3008</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="K57" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="J57" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2552,24 +2331,21 @@
         <v>15000.8217</v>
       </c>
       <c r="G58" t="n">
-        <v>368545.3008</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="K58" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="J58" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2591,24 +2367,21 @@
         <v>577</v>
       </c>
       <c r="G59" t="n">
-        <v>369122.3008</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="K59" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="J59" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2630,24 +2403,21 @@
         <v>11</v>
       </c>
       <c r="G60" t="n">
-        <v>369122.3008</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="K60" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="J60" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2669,24 +2439,21 @@
         <v>1967.5771</v>
       </c>
       <c r="G61" t="n">
-        <v>369122.3008</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="K61" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="J61" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2708,24 +2475,21 @@
         <v>71536.24189999999</v>
       </c>
       <c r="G62" t="n">
-        <v>440658.5427</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="K62" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="J62" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2747,24 +2511,21 @@
         <v>58497.2288</v>
       </c>
       <c r="G63" t="n">
-        <v>499155.7715</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="K63" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="J63" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2786,24 +2547,21 @@
         <v>11</v>
       </c>
       <c r="G64" t="n">
-        <v>499155.7715</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1.047980132450331</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2825,18 +2583,21 @@
         <v>11</v>
       </c>
       <c r="G65" t="n">
-        <v>499155.7715</v>
-      </c>
-      <c r="H65" t="n">
-        <v>2</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2858,18 +2619,21 @@
         <v>1059.7087</v>
       </c>
       <c r="G66" t="n">
-        <v>498096.0628</v>
-      </c>
-      <c r="H66" t="n">
         <v>2</v>
       </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1.04135761589404</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2891,18 +2655,15 @@
         <v>6450</v>
       </c>
       <c r="G67" t="n">
-        <v>498096.0628</v>
-      </c>
-      <c r="H67" t="n">
         <v>2</v>
       </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2924,18 +2685,15 @@
         <v>48463.1536</v>
       </c>
       <c r="G68" t="n">
-        <v>449632.9091999999</v>
-      </c>
-      <c r="H68" t="n">
         <v>2</v>
       </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2957,18 +2715,15 @@
         <v>10421</v>
       </c>
       <c r="G69" t="n">
-        <v>460053.9091999999</v>
-      </c>
-      <c r="H69" t="n">
         <v>2</v>
       </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2990,18 +2745,15 @@
         <v>19912.7653</v>
       </c>
       <c r="G70" t="n">
-        <v>440141.1438999999</v>
-      </c>
-      <c r="H70" t="n">
         <v>2</v>
       </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3023,18 +2775,15 @@
         <v>21</v>
       </c>
       <c r="G71" t="n">
-        <v>440120.1438999999</v>
-      </c>
-      <c r="H71" t="n">
         <v>2</v>
       </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3056,18 +2805,15 @@
         <v>2998.9474</v>
       </c>
       <c r="G72" t="n">
-        <v>440120.1438999999</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3089,18 +2835,15 @@
         <v>61840.1844</v>
       </c>
       <c r="G73" t="n">
-        <v>440120.1438999999</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3122,18 +2865,15 @@
         <v>1014.218</v>
       </c>
       <c r="G74" t="n">
-        <v>439105.9258999999</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3155,18 +2895,15 @@
         <v>11</v>
       </c>
       <c r="G75" t="n">
-        <v>439116.9258999999</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3188,18 +2925,15 @@
         <v>15309.0271</v>
       </c>
       <c r="G76" t="n">
-        <v>423807.8987999999</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3221,18 +2955,15 @@
         <v>29060.9381</v>
       </c>
       <c r="G77" t="n">
-        <v>394746.9606999999</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3254,18 +2985,15 @@
         <v>11</v>
       </c>
       <c r="G78" t="n">
-        <v>394757.9606999999</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3287,18 +3015,15 @@
         <v>308.9518</v>
       </c>
       <c r="G79" t="n">
-        <v>394757.9606999999</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3320,18 +3045,15 @@
         <v>523.6767</v>
       </c>
       <c r="G80" t="n">
-        <v>394757.9606999999</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3353,18 +3075,15 @@
         <v>22220.9119</v>
       </c>
       <c r="G81" t="n">
-        <v>372537.0487999999</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3386,18 +3105,15 @@
         <v>11</v>
       </c>
       <c r="G82" t="n">
-        <v>372548.0487999999</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3419,18 +3135,15 @@
         <v>155</v>
       </c>
       <c r="G83" t="n">
-        <v>372703.0487999999</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3452,18 +3165,15 @@
         <v>100</v>
       </c>
       <c r="G84" t="n">
-        <v>372603.0487999999</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3485,18 +3195,15 @@
         <v>36450.9818</v>
       </c>
       <c r="G85" t="n">
-        <v>372603.0487999999</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3518,18 +3225,15 @@
         <v>3805</v>
       </c>
       <c r="G86" t="n">
-        <v>376408.0487999999</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3551,18 +3255,15 @@
         <v>0.4182</v>
       </c>
       <c r="G87" t="n">
-        <v>376407.6305999999</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3584,18 +3285,15 @@
         <v>322.5806</v>
       </c>
       <c r="G88" t="n">
-        <v>376407.6305999999</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3617,18 +3315,15 @@
         <v>5000</v>
       </c>
       <c r="G89" t="n">
-        <v>371407.6305999999</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3650,18 +3345,15 @@
         <v>51993.2464</v>
       </c>
       <c r="G90" t="n">
-        <v>423400.8769999999</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3683,18 +3375,15 @@
         <v>1220</v>
       </c>
       <c r="G91" t="n">
-        <v>422180.8769999999</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3716,18 +3405,15 @@
         <v>49555.9677</v>
       </c>
       <c r="G92" t="n">
-        <v>422180.8769999999</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3749,18 +3435,15 @@
         <v>11</v>
       </c>
       <c r="G93" t="n">
-        <v>422191.8769999999</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3782,18 +3465,15 @@
         <v>321.5434</v>
       </c>
       <c r="G94" t="n">
-        <v>422191.8769999999</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3815,18 +3495,15 @@
         <v>1301</v>
       </c>
       <c r="G95" t="n">
-        <v>420890.8769999999</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3848,18 +3525,15 @@
         <v>72.425</v>
       </c>
       <c r="G96" t="n">
-        <v>420963.3019999999</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3881,18 +3555,15 @@
         <v>321.5434</v>
       </c>
       <c r="G97" t="n">
-        <v>420963.3019999999</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,18 +3585,15 @@
         <v>11326.7375</v>
       </c>
       <c r="G98" t="n">
-        <v>409636.5644999999</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3947,18 +3615,15 @@
         <v>92189.1201</v>
       </c>
       <c r="G99" t="n">
-        <v>409636.5644999999</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3980,18 +3645,15 @@
         <v>11</v>
       </c>
       <c r="G100" t="n">
-        <v>409647.5644999999</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4013,18 +3675,15 @@
         <v>1464.1931</v>
       </c>
       <c r="G101" t="n">
-        <v>409647.5644999999</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4046,18 +3705,15 @@
         <v>17423.1029</v>
       </c>
       <c r="G102" t="n">
-        <v>409647.5644999999</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4079,18 +3735,15 @@
         <v>11199.8529</v>
       </c>
       <c r="G103" t="n">
-        <v>398447.7115999999</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4112,18 +3765,15 @@
         <v>11</v>
       </c>
       <c r="G104" t="n">
-        <v>398458.7115999999</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4145,18 +3795,15 @@
         <v>18246.7285</v>
       </c>
       <c r="G105" t="n">
-        <v>398458.7115999999</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
